--- a/lab3/leaderboard.xlsx
+++ b/lab3/leaderboard.xlsx
@@ -370,91 +370,91 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>test3</t>
+          <t>s</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>test4</t>
+          <t>test3</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>test1</t>
+          <t>test4</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>music test</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>test1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>test</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>i</t>
+          <t>p</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>o</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>i</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/lab3/leaderboard.xlsx
+++ b/lab3/leaderboard.xlsx
@@ -360,101 +360,101 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>test2</t>
+          <t>f</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>48</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>tox</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>test3</t>
+          <t>test2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>test4</t>
+          <t>s</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>music test</t>
+          <t>test3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>test1</t>
+          <t>test4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>music test</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>test1</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>test</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>i</t>
+          <t>p</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
